--- a/Assignment3(Python_Project)/data/income.xlsx
+++ b/Assignment3(Python_Project)/data/income.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1c741db71da0312/Desktop/VS Code Github/python-project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OCS001991\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD3B058C38C891FD04BFD68B47803FF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DCE435D-CD34-4CFA-A198-E66B90612195}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -70,9 +69,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -96,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,16 +118,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,19 +443,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,13 +475,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45658</v>
+        <v>45574</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -481,13 +496,14 @@
       <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>45767</v>
+        <v>45683</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -501,13 +517,14 @@
       <c r="F3">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>45688</v>
+        <v>45604</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -521,13 +538,14 @@
       <c r="F4">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45689</v>
+        <v>45605</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -541,13 +559,14 @@
       <c r="F5">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>45702</v>
+        <v>45618</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -561,13 +580,14 @@
       <c r="F6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>45716</v>
+        <v>45632</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -581,13 +601,14 @@
       <c r="F7">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>45717</v>
+        <v>45633</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -601,13 +622,14 @@
       <c r="F8">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>45747</v>
+        <v>45663</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -621,13 +643,14 @@
       <c r="F9">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>45748</v>
+        <v>45664</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -641,13 +664,14 @@
       <c r="F10">
         <v>216</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>45767</v>
+        <v>45683</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -661,13 +685,14 @@
       <c r="F11">
         <v>251</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>45777</v>
+        <v>45693</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -681,6 +706,7 @@
       <c r="F12">
         <v>278</v>
       </c>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
